--- a/data_processed/20250717/BTCUSDVOLSURFACE_REGULARIZED_20250717.xlsx
+++ b/data_processed/20250717/BTCUSDVOLSURFACE_REGULARIZED_20250717.xlsx
@@ -669,7 +669,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -785,7 +785,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -814,7 +814,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -843,7 +843,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -872,7 +872,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -901,7 +901,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -930,7 +930,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -988,7 +988,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2090,7 +2090,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2322,7 +2322,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2380,7 +2380,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2525,7 +2525,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2583,7 +2583,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2670,7 +2670,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2699,7 +2699,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2728,7 +2728,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2815,7 +2815,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2902,7 +2902,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2960,7 +2960,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2989,7 +2989,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -3308,7 +3308,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -3685,7 +3685,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -3714,7 +3714,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -11727,7 +11727,7 @@
       </c>
       <c r="G418" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -11756,7 +11756,7 @@
       </c>
       <c r="G419" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -11872,7 +11872,7 @@
       </c>
       <c r="G423" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -11901,7 +11901,7 @@
       </c>
       <c r="G424" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -11930,7 +11930,7 @@
       </c>
       <c r="G425" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -12017,7 +12017,7 @@
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -12046,7 +12046,7 @@
       </c>
       <c r="G429" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -12162,7 +12162,7 @@
       </c>
       <c r="G433" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -12307,7 +12307,7 @@
       </c>
       <c r="G438" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -12655,7 +12655,7 @@
       </c>
       <c r="G450" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18460,7 +18460,7 @@
       </c>
       <c r="G679" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18605,7 +18605,7 @@
       </c>
       <c r="G684" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18721,7 +18721,7 @@
       </c>
       <c r="G688" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18837,7 +18837,7 @@
       </c>
       <c r="G692" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -30587,7 +30587,7 @@
       </c>
       <c r="G1158" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -45920,7 +45920,7 @@
       </c>
       <c r="G1767" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -47112,7 +47112,7 @@
       </c>
       <c r="G1811" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -47170,7 +47170,7 @@
       </c>
       <c r="G1813" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -47935,7 +47935,7 @@
       </c>
       <c r="G1842" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -48304,7 +48304,7 @@
       </c>
       <c r="G1855" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -49053,7 +49053,7 @@
       </c>
       <c r="G1884" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -49082,7 +49082,7 @@
       </c>
       <c r="G1885" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -51343,7 +51343,7 @@
       </c>
       <c r="G1966" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250717/BTCUSDVOLSURFACE_REGULARIZED_20250717.xlsx
+++ b/data_processed/20250717/BTCUSDVOLSURFACE_REGULARIZED_20250717.xlsx
@@ -611,7 +611,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -1800,7 +1800,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -3134,7 +3134,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -3163,7 +3163,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -11988,7 +11988,7 @@
       </c>
       <c r="G427" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -12133,7 +12133,7 @@
       </c>
       <c r="G432" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -18663,7 +18663,7 @@
       </c>
       <c r="G686" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -18808,7 +18808,7 @@
       </c>
       <c r="G691" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -18924,7 +18924,7 @@
       </c>
       <c r="G695" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -51517,7 +51517,7 @@
       </c>
       <c r="G1972" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
